--- a/public/download.xlsx
+++ b/public/download.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Rental Case Id</t>
   </si>
@@ -40,43 +40,85 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>2</t>
+    <t>7</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>AA0000BB</t>
-  </si>
-  <si>
-    <t>111144141</t>
-  </si>
-  <si>
-    <t>2032-11-02</t>
-  </si>
-  <si>
-    <t>2042-12-03</t>
+    <t>AK4444BA</t>
+  </si>
+  <si>
+    <t>1003383</t>
+  </si>
+  <si>
+    <t>2022-03-11</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>Everything</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>B05050BE</t>
-  </si>
-  <si>
-    <t>fssfsffs</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ffff</t>
+    <t>Broken window</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AA1111BA</t>
+  </si>
+  <si>
+    <t>1006739</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>Nothing to say</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>BO3311BO</t>
+  </si>
+  <si>
+    <t>1000556</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>A few scratches</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>BB9999BB</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-10-15</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -417,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,51 +522,77 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/download.xlsx
+++ b/public/download.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
-    <t>Rental Case Id</t>
-  </si>
-  <si>
-    <t>Staff Id</t>
-  </si>
-  <si>
-    <t>Car Plate Number</t>
-  </si>
-  <si>
-    <t>Customer's Driver License Id</t>
-  </si>
-  <si>
-    <t>Rent Date</t>
-  </si>
-  <si>
-    <t>Return Date</t>
-  </si>
-  <si>
-    <t>Returned</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Id Випадку оренди</t>
+  </si>
+  <si>
+    <t>Id Працівника</t>
+  </si>
+  <si>
+    <t>Номер авто</t>
+  </si>
+  <si>
+    <t>Номер водійського посвідчення</t>
+  </si>
+  <si>
+    <t>Дата оренди</t>
+  </si>
+  <si>
+    <t>Дата повернення</t>
+  </si>
+  <si>
+    <t>Повернено</t>
+  </si>
+  <si>
+    <t>Коментар</t>
   </si>
   <si>
     <t>7</t>
@@ -52,10 +52,10 @@
     <t>1003383</t>
   </si>
   <si>
-    <t>2022-03-11</t>
-  </si>
-  <si>
-    <t>2022-03-20</t>
+    <t>11.03.2022</t>
+  </si>
+  <si>
+    <t>20.03.2022</t>
   </si>
   <si>
     <t>true</t>
@@ -64,6 +64,45 @@
     <t>Broken window</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>BO3311BO</t>
+  </si>
+  <si>
+    <t>1000556</t>
+  </si>
+  <si>
+    <t>10.01.2022</t>
+  </si>
+  <si>
+    <t>13.01.2022</t>
+  </si>
+  <si>
+    <t>A few scratches</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>BB9999BB</t>
+  </si>
+  <si>
+    <t>15.05.2022</t>
+  </si>
+  <si>
+    <t>15.10.2022</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Nothing to say</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -73,52 +112,13 @@
     <t>AA1111BA</t>
   </si>
   <si>
-    <t>1006739</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>Nothing to say</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>BO3311BO</t>
-  </si>
-  <si>
-    <t>1000556</t>
-  </si>
-  <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
-    <t>2022-01-13</t>
-  </si>
-  <si>
-    <t>A few scratches</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>BB9999BB</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-10-15</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>11.03.2020</t>
+  </si>
+  <si>
+    <t>11.05.2020</t>
+  </si>
+  <si>
+    <t>Nothing</t>
   </si>
 </sst>
 </file>
@@ -548,33 +548,33 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -589,10 +589,10 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
